--- a/Jeu de Données.xlsx
+++ b/Jeu de Données.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MPN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MPN\Desktop\Prj BDD\GiselleMagicArts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Table Potions" sheetId="9" r:id="rId1"/>
     <sheet name="Table Onguents" sheetId="11" r:id="rId2"/>
     <sheet name="Table Recipients" sheetId="12" r:id="rId3"/>
     <sheet name="Table Ingredients" sheetId="13" r:id="rId4"/>
+    <sheet name="Table Clients" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="349">
   <si>
     <t>Huile de bénédiction d'arme</t>
   </si>
@@ -634,13 +635,448 @@
   </si>
   <si>
     <t>FRAICHEUR (jours)</t>
+  </si>
+  <si>
+    <t>NOM CLIENT</t>
+  </si>
+  <si>
+    <t>PRENOM CLIENT</t>
+  </si>
+  <si>
+    <t>ADRESSE</t>
+  </si>
+  <si>
+    <t>Mandel</t>
+  </si>
+  <si>
+    <t>Ferland</t>
+  </si>
+  <si>
+    <t>1 rue Victor Hugo</t>
+  </si>
+  <si>
+    <t>Sébastien</t>
+  </si>
+  <si>
+    <t>Beaudry</t>
+  </si>
+  <si>
+    <t>84 rue Petite Fusterie</t>
+  </si>
+  <si>
+    <t>Christophe</t>
+  </si>
+  <si>
+    <t>Bernier</t>
+  </si>
+  <si>
+    <t>94 rue des Chaligny</t>
+  </si>
+  <si>
+    <t>Pauline</t>
+  </si>
+  <si>
+    <t>Jalbert</t>
+  </si>
+  <si>
+    <t>37 rue de la Hulotais</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>Morin</t>
+  </si>
+  <si>
+    <t>58 Rue Joseph Vernet</t>
+  </si>
+  <si>
+    <t>Harcourt</t>
+  </si>
+  <si>
+    <t>Parrot</t>
+  </si>
+  <si>
+    <t>28 rue Ernest Renan</t>
+  </si>
+  <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Gougeon</t>
+  </si>
+  <si>
+    <t>22 avenue de Provence</t>
+  </si>
+  <si>
+    <t>Sargent</t>
+  </si>
+  <si>
+    <t>Fortin</t>
+  </si>
+  <si>
+    <t>80 avenue Ferdinand de Lesseps</t>
+  </si>
+  <si>
+    <t>Loring</t>
+  </si>
+  <si>
+    <t>Bellemare</t>
+  </si>
+  <si>
+    <t>25 rue de Raymond Poincaré</t>
+  </si>
+  <si>
+    <t>Baptiste</t>
+  </si>
+  <si>
+    <t>Guérette</t>
+  </si>
+  <si>
+    <t>48 quai Saint-Nicolas</t>
+  </si>
+  <si>
+    <t>Anastasie</t>
+  </si>
+  <si>
+    <t>Huppé</t>
+  </si>
+  <si>
+    <t>3 rue Descartes</t>
+  </si>
+  <si>
+    <t>Thérèse</t>
+  </si>
+  <si>
+    <t>Jetté</t>
+  </si>
+  <si>
+    <t>63 avenue de l'Amandier</t>
+  </si>
+  <si>
+    <t>Clarice</t>
+  </si>
+  <si>
+    <t>Garnier</t>
+  </si>
+  <si>
+    <t>41 rue du Gue Jacquet</t>
+  </si>
+  <si>
+    <t>Didier</t>
+  </si>
+  <si>
+    <t>Franchet</t>
+  </si>
+  <si>
+    <t>73 boulevard d'Alsace</t>
+  </si>
+  <si>
+    <t>Christiane</t>
+  </si>
+  <si>
+    <t>Courcelle</t>
+  </si>
+  <si>
+    <t>63 rue de la Mare aux Carats</t>
+  </si>
+  <si>
+    <t>Suzette</t>
+  </si>
+  <si>
+    <t>Bergeron</t>
+  </si>
+  <si>
+    <t>98 Chemin des Bateliers</t>
+  </si>
+  <si>
+    <t>Germain</t>
+  </si>
+  <si>
+    <t>Goguen</t>
+  </si>
+  <si>
+    <t>45 rue du Gue Jacquet</t>
+  </si>
+  <si>
+    <t>Arnou</t>
+  </si>
+  <si>
+    <t>Brasseur</t>
+  </si>
+  <si>
+    <t>Delmar</t>
+  </si>
+  <si>
+    <t>Deniger</t>
+  </si>
+  <si>
+    <t>9 Rue Marie De Médicis</t>
+  </si>
+  <si>
+    <t>Hugues</t>
+  </si>
+  <si>
+    <t>Patenaude</t>
+  </si>
+  <si>
+    <t>16 rue du Paillle en queue</t>
+  </si>
+  <si>
+    <t>Loyal</t>
+  </si>
+  <si>
+    <t>Perrault</t>
+  </si>
+  <si>
+    <t>40 boulevard d'Alsace</t>
+  </si>
+  <si>
+    <t>Ignace</t>
+  </si>
+  <si>
+    <t>Chouinard</t>
+  </si>
+  <si>
+    <t>16 rue Michel Ange</t>
+  </si>
+  <si>
+    <t>Aubin</t>
+  </si>
+  <si>
+    <t>Langlais</t>
+  </si>
+  <si>
+    <t>18 rue Léon Dierx</t>
+  </si>
+  <si>
+    <t>Bevis</t>
+  </si>
+  <si>
+    <t>Auberjonois</t>
+  </si>
+  <si>
+    <t>84 rue du Château</t>
+  </si>
+  <si>
+    <t>Chantal</t>
+  </si>
+  <si>
+    <t>Bonami</t>
+  </si>
+  <si>
+    <t>56 Rue Joseph Vernet</t>
+  </si>
+  <si>
+    <t>Favor</t>
+  </si>
+  <si>
+    <t>48 Avenue Millies Lacroix</t>
+  </si>
+  <si>
+    <t>Magnolia</t>
+  </si>
+  <si>
+    <t>Lépicier</t>
+  </si>
+  <si>
+    <t>86 rue Saint Germain</t>
+  </si>
+  <si>
+    <t>Neville</t>
+  </si>
+  <si>
+    <t>Covillon</t>
+  </si>
+  <si>
+    <t>33 avenue Ferdinand de Lesseps</t>
+  </si>
+  <si>
+    <t>Ormazd</t>
+  </si>
+  <si>
+    <t>Hachée</t>
+  </si>
+  <si>
+    <t>12 Rue Hubert de Lisle</t>
+  </si>
+  <si>
+    <t>Varden</t>
+  </si>
+  <si>
+    <t>Echeverri</t>
+  </si>
+  <si>
+    <t>23 rue Marie de Médicis</t>
+  </si>
+  <si>
+    <t>Henri</t>
+  </si>
+  <si>
+    <t>Fournier</t>
+  </si>
+  <si>
+    <t>53 rue Petite Fusterie</t>
+  </si>
+  <si>
+    <t>Arnaude</t>
+  </si>
+  <si>
+    <t>Laurent</t>
+  </si>
+  <si>
+    <t>9 rue Adolphe Wurtz</t>
+  </si>
+  <si>
+    <t>Rousseau</t>
+  </si>
+  <si>
+    <t>29 boulevard d'Alsace</t>
+  </si>
+  <si>
+    <t>Sennet</t>
+  </si>
+  <si>
+    <t>Latourelle</t>
+  </si>
+  <si>
+    <t>74 rue Grande Fusterie</t>
+  </si>
+  <si>
+    <t>Henrichon</t>
+  </si>
+  <si>
+    <t>75 avenue Voltaire</t>
+  </si>
+  <si>
+    <t>Eugène</t>
+  </si>
+  <si>
+    <t>Tanguay</t>
+  </si>
+  <si>
+    <t>22 place de Miremont</t>
+  </si>
+  <si>
+    <t>Noémi</t>
+  </si>
+  <si>
+    <t>Quirion</t>
+  </si>
+  <si>
+    <t>17 rue des Chaligny</t>
+  </si>
+  <si>
+    <t>Laverne</t>
+  </si>
+  <si>
+    <t>Coupart</t>
+  </si>
+  <si>
+    <t>9 rue Sébastopol</t>
+  </si>
+  <si>
+    <t>Philippe</t>
+  </si>
+  <si>
+    <t>22 rue Banaudon</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Roussel</t>
+  </si>
+  <si>
+    <t>21 Chemin Des Bateliers</t>
+  </si>
+  <si>
+    <t>Donatien</t>
+  </si>
+  <si>
+    <t>84 rue Saint Germain</t>
+  </si>
+  <si>
+    <t>Morneau</t>
+  </si>
+  <si>
+    <t>34 rue Sébastopol</t>
+  </si>
+  <si>
+    <t>Grosvenor</t>
+  </si>
+  <si>
+    <t>Doiron</t>
+  </si>
+  <si>
+    <t>19 rue Adolphe Wurtz</t>
+  </si>
+  <si>
+    <t>Sacripant</t>
+  </si>
+  <si>
+    <t>Berie</t>
+  </si>
+  <si>
+    <t>8 rue Pierre Motte</t>
+  </si>
+  <si>
+    <t>Esperanza</t>
+  </si>
+  <si>
+    <t>Boucher</t>
+  </si>
+  <si>
+    <t>50 place Stanislas</t>
+  </si>
+  <si>
+    <t>Laurence</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>13 rue Pierre De Coubertin</t>
+  </si>
+  <si>
+    <t>Roux</t>
+  </si>
+  <si>
+    <t>23 avenue de Bouvines</t>
+  </si>
+  <si>
+    <t>Monique</t>
+  </si>
+  <si>
+    <t>90 rue Goya</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Hébert</t>
+  </si>
+  <si>
+    <t>7 rue Michel Ange</t>
+  </si>
+  <si>
+    <t>Fleurette</t>
+  </si>
+  <si>
+    <t>Collin</t>
+  </si>
+  <si>
+    <t>85 rue Sadi Carnot</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,16 +1084,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -665,19 +1401,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3827,7 +4753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -4919,7 +5845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -5902,4 +6828,585 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Jeu de Données.xlsx
+++ b/Jeu de Données.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MPN\Desktop\Prj BDD\GiselleMagicArts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malor\Documents\GiselleMagicArts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Table Potions" sheetId="9" r:id="rId1"/>
@@ -1075,7 +1075,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1589,11 +1589,11 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1694,6 +1694,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1729,6 +1746,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1911,19 +1945,19 @@
       <selection activeCell="G2" sqref="G2:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -1977,7 +2011,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2029,7 +2063,7 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2115,7 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2133,7 +2167,7 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2185,7 +2219,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2237,7 +2271,7 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2289,7 +2323,7 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2338,7 +2372,7 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2390,7 +2424,7 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2442,7 +2476,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2494,7 +2528,7 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2546,7 +2580,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2598,7 +2632,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2650,7 +2684,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -2702,7 +2736,7 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2754,7 +2788,7 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -2806,7 +2840,7 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2855,7 +2889,7 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2907,7 +2941,7 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2959,7 +2993,7 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3011,7 +3045,7 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -3063,7 +3097,7 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3115,7 +3149,7 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3167,7 +3201,7 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3216,7 +3250,7 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3268,7 +3302,7 @@
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3320,7 +3354,7 @@
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -3372,7 +3406,7 @@
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3424,7 +3458,7 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -3476,7 +3510,7 @@
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -3528,7 +3562,7 @@
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3580,7 +3614,7 @@
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -3632,7 +3666,7 @@
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -3684,7 +3718,7 @@
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -3736,7 +3770,7 @@
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -3788,7 +3822,7 @@
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -3840,7 +3874,7 @@
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -3892,7 +3926,7 @@
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -3944,7 +3978,7 @@
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -3996,7 +4030,7 @@
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -4048,7 +4082,7 @@
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -4100,7 +4134,7 @@
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -4152,7 +4186,7 @@
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -4204,7 +4238,7 @@
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4240,7 +4274,7 @@
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4276,7 +4310,7 @@
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4312,7 +4346,7 @@
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4348,7 +4382,7 @@
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4384,7 +4418,7 @@
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4420,7 +4454,7 @@
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4456,7 +4490,7 @@
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4492,7 +4526,7 @@
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4528,7 +4562,7 @@
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4564,7 +4598,7 @@
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4600,7 +4634,7 @@
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4636,7 +4670,7 @@
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4672,7 +4706,7 @@
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4708,7 +4742,7 @@
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4757,17 +4791,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -4793,7 +4827,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>170</v>
       </c>
@@ -4816,7 +4850,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -4839,7 +4873,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>172</v>
       </c>
@@ -4862,7 +4896,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>173</v>
       </c>
@@ -4885,7 +4919,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>174</v>
       </c>
@@ -4908,7 +4942,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>132</v>
       </c>
@@ -4931,7 +4965,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>133</v>
       </c>
@@ -4951,7 +4985,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>134</v>
       </c>
@@ -4974,7 +5008,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>135</v>
       </c>
@@ -4997,7 +5031,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>136</v>
       </c>
@@ -5020,7 +5054,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
@@ -5043,7 +5077,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -5066,7 +5100,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>139</v>
       </c>
@@ -5089,7 +5123,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -5112,7 +5146,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
@@ -5135,7 +5169,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>142</v>
       </c>
@@ -5158,7 +5192,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
@@ -5178,7 +5212,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>144</v>
       </c>
@@ -5201,7 +5235,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>145</v>
       </c>
@@ -5224,7 +5258,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>146</v>
       </c>
@@ -5247,7 +5281,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>147</v>
       </c>
@@ -5270,7 +5304,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>148</v>
       </c>
@@ -5293,7 +5327,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>149</v>
       </c>
@@ -5316,7 +5350,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>150</v>
       </c>
@@ -5336,7 +5370,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>151</v>
       </c>
@@ -5359,7 +5393,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>152</v>
       </c>
@@ -5382,7 +5416,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>153</v>
       </c>
@@ -5405,7 +5439,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>154</v>
       </c>
@@ -5428,7 +5462,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>155</v>
       </c>
@@ -5451,7 +5485,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>156</v>
       </c>
@@ -5474,7 +5508,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>157</v>
       </c>
@@ -5497,7 +5531,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>158</v>
       </c>
@@ -5520,7 +5554,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>159</v>
       </c>
@@ -5543,7 +5577,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>160</v>
       </c>
@@ -5566,7 +5600,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -5589,7 +5623,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>162</v>
       </c>
@@ -5612,7 +5646,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>163</v>
       </c>
@@ -5635,7 +5669,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>164</v>
       </c>
@@ -5658,7 +5692,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>165</v>
       </c>
@@ -5681,7 +5715,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>166</v>
       </c>
@@ -5704,7 +5738,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>167</v>
       </c>
@@ -5727,7 +5761,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>168</v>
       </c>
@@ -5750,7 +5784,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>169</v>
       </c>
@@ -5786,9 +5820,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>192</v>
       </c>
@@ -5796,7 +5830,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>193</v>
       </c>
@@ -5804,7 +5838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>194</v>
       </c>
@@ -5812,7 +5846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>195</v>
       </c>
@@ -5820,7 +5854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>197</v>
       </c>
@@ -5828,7 +5862,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -5849,14 +5883,14 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -5867,7 +5901,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -5878,7 +5912,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -5889,7 +5923,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -5900,7 +5934,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -5911,7 +5945,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -5922,7 +5956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -5933,7 +5967,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5944,7 +5978,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -5955,7 +5989,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5966,7 +6000,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -5977,7 +6011,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -5988,7 +6022,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -5999,7 +6033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -6010,7 +6044,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -6021,7 +6055,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -6032,7 +6066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -6043,7 +6077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -6054,7 +6088,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -6065,7 +6099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -6076,7 +6110,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -6087,7 +6121,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -6098,7 +6132,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -6109,7 +6143,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -6120,7 +6154,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -6131,7 +6165,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -6142,7 +6176,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -6153,7 +6187,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -6164,7 +6198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -6175,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -6186,7 +6220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -6197,7 +6231,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -6208,7 +6242,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -6219,7 +6253,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -6230,7 +6264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -6241,7 +6275,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -6252,7 +6286,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -6263,7 +6297,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -6274,7 +6308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -6285,7 +6319,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -6296,7 +6330,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -6307,7 +6341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -6318,7 +6352,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -6329,7 +6363,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -6340,7 +6374,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -6351,7 +6385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -6362,7 +6396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -6373,7 +6407,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -6384,7 +6418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -6395,7 +6429,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -6406,7 +6440,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -6417,7 +6451,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -6428,7 +6462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -6439,7 +6473,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -6450,7 +6484,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -6461,7 +6495,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -6472,7 +6506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -6483,7 +6517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -6494,7 +6528,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -6505,7 +6539,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -6516,7 +6550,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -6527,7 +6561,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -6538,7 +6572,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>97</v>
       </c>
@@ -6549,7 +6583,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -6560,7 +6594,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>99</v>
       </c>
@@ -6571,7 +6605,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -6582,7 +6616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -6593,7 +6627,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -6604,7 +6638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -6615,7 +6649,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -6626,7 +6660,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -6637,7 +6671,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>185</v>
       </c>
@@ -6648,7 +6682,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>187</v>
       </c>
@@ -6659,7 +6693,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>186</v>
       </c>
@@ -6670,7 +6704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>175</v>
       </c>
@@ -6681,7 +6715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>177</v>
       </c>
@@ -6692,7 +6726,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>184</v>
       </c>
@@ -6703,7 +6737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>179</v>
       </c>
@@ -6714,7 +6748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>199</v>
       </c>
@@ -6725,7 +6759,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -6736,7 +6770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>176</v>
       </c>
@@ -6747,7 +6781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>200</v>
       </c>
@@ -6758,7 +6792,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>182</v>
       </c>
@@ -6769,7 +6803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>178</v>
       </c>
@@ -6780,7 +6814,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>201</v>
       </c>
@@ -6791,7 +6825,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>180</v>
       </c>
@@ -6802,7 +6836,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>202</v>
       </c>
@@ -6813,7 +6847,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -6835,17 +6869,17 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -6856,7 +6890,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>207</v>
       </c>
@@ -6867,7 +6901,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>210</v>
       </c>
@@ -6878,7 +6912,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>213</v>
       </c>
@@ -6889,7 +6923,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>216</v>
       </c>
@@ -6900,7 +6934,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>219</v>
       </c>
@@ -6911,7 +6945,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>222</v>
       </c>
@@ -6922,7 +6956,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>225</v>
       </c>
@@ -6933,7 +6967,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>228</v>
       </c>
@@ -6944,7 +6978,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>231</v>
       </c>
@@ -6955,7 +6989,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>234</v>
       </c>
@@ -6966,7 +7000,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>237</v>
       </c>
@@ -6977,7 +7011,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>240</v>
       </c>
@@ -6988,7 +7022,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>243</v>
       </c>
@@ -6999,7 +7033,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>246</v>
       </c>
@@ -7010,7 +7044,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>249</v>
       </c>
@@ -7021,7 +7055,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>252</v>
       </c>
@@ -7032,7 +7066,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>255</v>
       </c>
@@ -7043,7 +7077,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>258</v>
       </c>
@@ -7054,7 +7088,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>260</v>
       </c>
@@ -7065,7 +7099,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>263</v>
       </c>
@@ -7076,7 +7110,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>266</v>
       </c>
@@ -7087,7 +7121,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>269</v>
       </c>
@@ -7098,7 +7132,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>272</v>
       </c>
@@ -7109,7 +7143,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>275</v>
       </c>
@@ -7120,7 +7154,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>278</v>
       </c>
@@ -7131,7 +7165,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>281</v>
       </c>
@@ -7142,7 +7176,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>283</v>
       </c>
@@ -7153,7 +7187,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>286</v>
       </c>
@@ -7164,7 +7198,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>289</v>
       </c>
@@ -7175,7 +7209,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>292</v>
       </c>
@@ -7186,7 +7220,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>295</v>
       </c>
@@ -7197,7 +7231,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>298</v>
       </c>
@@ -7208,7 +7242,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>207</v>
       </c>
@@ -7219,7 +7253,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>303</v>
       </c>
@@ -7230,7 +7264,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>348</v>
       </c>
@@ -7241,7 +7275,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>308</v>
       </c>
@@ -7252,7 +7286,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>311</v>
       </c>
@@ -7263,7 +7297,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>314</v>
       </c>
@@ -7274,7 +7308,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>317</v>
       </c>
@@ -7285,7 +7319,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>319</v>
       </c>
@@ -7296,7 +7330,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>322</v>
       </c>
@@ -7307,7 +7341,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>311</v>
       </c>
@@ -7318,7 +7352,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>326</v>
       </c>
@@ -7329,7 +7363,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>329</v>
       </c>
@@ -7340,7 +7374,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>332</v>
       </c>
@@ -7351,7 +7385,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>335</v>
       </c>
@@ -7362,7 +7396,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>322</v>
       </c>
@@ -7373,7 +7407,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>340</v>
       </c>
@@ -7384,7 +7418,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>342</v>
       </c>
@@ -7395,7 +7429,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>345</v>
       </c>

--- a/Jeu de Données.xlsx
+++ b/Jeu de Données.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="4"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table Potions" sheetId="9" r:id="rId1"/>
@@ -5879,983 +5879,983 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>198</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
         <v>127</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
+        <v>56</v>
+      </c>
+      <c r="C2">
         <v>20</v>
-      </c>
-      <c r="C2" s="2">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
+        <v>464</v>
+      </c>
+      <c r="C3">
         <v>20</v>
-      </c>
-      <c r="C3" s="2">
-        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
+        <v>63</v>
+      </c>
+      <c r="C4">
         <v>15</v>
-      </c>
-      <c r="C4" s="2">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
+        <v>74</v>
+      </c>
+      <c r="C5">
         <v>14</v>
-      </c>
-      <c r="C5" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6">
         <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
+        <v>66</v>
+      </c>
+      <c r="C7">
         <v>12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
+        <v>64</v>
+      </c>
+      <c r="C8">
         <v>13</v>
-      </c>
-      <c r="C8" s="2">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
+        <v>984</v>
+      </c>
+      <c r="C9">
         <v>12</v>
-      </c>
-      <c r="C9" s="2">
-        <v>984</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
+        <v>44</v>
+      </c>
+      <c r="C10">
         <v>16</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
+        <v>498</v>
+      </c>
+      <c r="C11">
         <v>13</v>
-      </c>
-      <c r="C11" s="2">
-        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
+        <v>49</v>
+      </c>
+      <c r="C12">
         <v>12</v>
-      </c>
-      <c r="C12" s="2">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
+        <v>16</v>
+      </c>
+      <c r="C13">
         <v>15</v>
-      </c>
-      <c r="C13" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
+        <v>56</v>
+      </c>
+      <c r="C14">
         <v>18</v>
-      </c>
-      <c r="C14" s="2">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
+        <v>748</v>
+      </c>
+      <c r="C15">
         <v>12</v>
-      </c>
-      <c r="C15" s="2">
-        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>15</v>
-      </c>
-      <c r="C16" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
+        <v>64</v>
+      </c>
+      <c r="C17">
         <v>11</v>
-      </c>
-      <c r="C17" s="2">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
+        <v>64</v>
+      </c>
+      <c r="C18">
         <v>18</v>
-      </c>
-      <c r="C18" s="2">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19">
         <v>12</v>
-      </c>
-      <c r="C19" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
+        <v>465</v>
+      </c>
+      <c r="C20">
         <v>20</v>
-      </c>
-      <c r="C20" s="2">
-        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
+        <v>564</v>
+      </c>
+      <c r="C21">
         <v>15</v>
-      </c>
-      <c r="C21" s="2">
-        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
+        <v>984</v>
+      </c>
+      <c r="C22">
         <v>11</v>
-      </c>
-      <c r="C22" s="2">
-        <v>984</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
+        <v>651</v>
+      </c>
+      <c r="C23">
         <v>13</v>
-      </c>
-      <c r="C23" s="2">
-        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
+        <v>68</v>
+      </c>
+      <c r="C24">
         <v>14</v>
-      </c>
-      <c r="C24" s="2">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>68</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
+        <v>56</v>
+      </c>
+      <c r="C25">
         <v>14</v>
-      </c>
-      <c r="C25" s="2">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>69</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
+        <v>186</v>
+      </c>
+      <c r="C26">
         <v>20</v>
-      </c>
-      <c r="C26" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
+        <v>465</v>
+      </c>
+      <c r="C27">
         <v>13</v>
-      </c>
-      <c r="C27" s="2">
-        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
+        <v>65</v>
+      </c>
+      <c r="C28">
         <v>11</v>
-      </c>
-      <c r="C28" s="2">
-        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>72</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>20</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
+        <v>34</v>
+      </c>
+      <c r="C30">
         <v>17</v>
-      </c>
-      <c r="C30" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
+        <v>981</v>
+      </c>
+      <c r="C31">
         <v>12</v>
-      </c>
-      <c r="C31" s="2">
-        <v>981</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
+        <v>564</v>
+      </c>
+      <c r="C32">
         <v>14</v>
-      </c>
-      <c r="C32" s="2">
-        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>75</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
+        <v>156</v>
+      </c>
+      <c r="C33">
         <v>18</v>
-      </c>
-      <c r="C33" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>76</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34">
         <v>13</v>
-      </c>
-      <c r="C34" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
+        <v>684</v>
+      </c>
+      <c r="C35">
         <v>20</v>
-      </c>
-      <c r="C35" s="2">
-        <v>684</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
+        <v>68</v>
+      </c>
+      <c r="C36">
         <v>18</v>
-      </c>
-      <c r="C36" s="2">
-        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
+        <v>468</v>
+      </c>
+      <c r="C37">
         <v>16</v>
-      </c>
-      <c r="C37" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+      <c r="C38">
         <v>17</v>
-      </c>
-      <c r="C38" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
+        <v>98</v>
+      </c>
+      <c r="C39">
         <v>11</v>
-      </c>
-      <c r="C39" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
+        <v>465</v>
+      </c>
+      <c r="C40">
         <v>16</v>
-      </c>
-      <c r="C40" s="2">
-        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41">
         <v>20</v>
-      </c>
-      <c r="C41" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
+        <v>84</v>
+      </c>
+      <c r="C42">
         <v>18</v>
-      </c>
-      <c r="C42" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
+        <v>84</v>
+      </c>
+      <c r="C43">
         <v>18</v>
-      </c>
-      <c r="C43" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
+        <v>864</v>
+      </c>
+      <c r="C44">
         <v>14</v>
-      </c>
-      <c r="C44" s="2">
-        <v>864</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
+        <v>8</v>
+      </c>
+      <c r="C45">
         <v>17</v>
-      </c>
-      <c r="C45" s="2">
-        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
+        <v>46</v>
+      </c>
+      <c r="C46">
         <v>20</v>
-      </c>
-      <c r="C46" s="2">
-        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
+        <v>486</v>
+      </c>
+      <c r="C47">
         <v>13</v>
-      </c>
-      <c r="C47" s="2">
-        <v>486</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>83</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
+        <v>4</v>
+      </c>
+      <c r="C48">
         <v>12</v>
-      </c>
-      <c r="C48" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>84</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
+        <v>684</v>
+      </c>
+      <c r="C49">
         <v>20</v>
-      </c>
-      <c r="C49" s="2">
-        <v>684</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>85</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
+        <v>64</v>
+      </c>
+      <c r="C50">
         <v>18</v>
-      </c>
-      <c r="C50" s="2">
-        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>86</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
+        <v>848</v>
+      </c>
+      <c r="C51">
         <v>10</v>
-      </c>
-      <c r="C51" s="2">
-        <v>848</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>87</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
+        <v>7</v>
+      </c>
+      <c r="C52">
         <v>11</v>
-      </c>
-      <c r="C52" s="2">
-        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>88</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
+        <v>98</v>
+      </c>
+      <c r="C53">
         <v>19</v>
-      </c>
-      <c r="C53" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>89</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
+        <v>94</v>
+      </c>
+      <c r="C54">
         <v>18</v>
-      </c>
-      <c r="C54" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>90</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
+        <v>84</v>
+      </c>
+      <c r="C55">
         <v>20</v>
-      </c>
-      <c r="C55" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>91</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
+        <v>8</v>
+      </c>
+      <c r="C56">
         <v>16</v>
-      </c>
-      <c r="C56" s="2">
-        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>92</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
+        <v>9</v>
+      </c>
+      <c r="C57">
         <v>16</v>
-      </c>
-      <c r="C57" s="2">
-        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
+        <v>78</v>
+      </c>
+      <c r="C58">
         <v>14</v>
-      </c>
-      <c r="C58" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>93</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
+        <v>456</v>
+      </c>
+      <c r="C59">
         <v>19</v>
-      </c>
-      <c r="C59" s="2">
-        <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>94</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
+        <v>49</v>
+      </c>
+      <c r="C60">
         <v>18</v>
-      </c>
-      <c r="C60" s="2">
-        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>95</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
+        <v>84</v>
+      </c>
+      <c r="C61">
         <v>16</v>
-      </c>
-      <c r="C61" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>96</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
+        <v>654</v>
+      </c>
+      <c r="C62">
         <v>20</v>
-      </c>
-      <c r="C62" s="2">
-        <v>654</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>97</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
+        <v>98</v>
+      </c>
+      <c r="C63">
         <v>13</v>
-      </c>
-      <c r="C63" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>98</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
+        <v>45</v>
+      </c>
+      <c r="C64">
         <v>16</v>
-      </c>
-      <c r="C64" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>99</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
+        <v>49</v>
+      </c>
+      <c r="C65">
         <v>10</v>
-      </c>
-      <c r="C65" s="2">
-        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>100</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
+        <v>4</v>
+      </c>
+      <c r="C66">
         <v>12</v>
-      </c>
-      <c r="C66" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>101</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
+        <v>849</v>
+      </c>
+      <c r="C67">
         <v>17</v>
-      </c>
-      <c r="C67" s="2">
-        <v>849</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>102</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
+        <v>4</v>
+      </c>
+      <c r="C68">
         <v>19</v>
-      </c>
-      <c r="C68" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>118</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
+        <v>67</v>
+      </c>
+      <c r="C69">
         <v>15</v>
-      </c>
-      <c r="C69" s="2">
-        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>119</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
+        <v>428</v>
+      </c>
+      <c r="C70">
         <v>10</v>
-      </c>
-      <c r="C70" s="2">
-        <v>428</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>120</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
+        <v>98</v>
+      </c>
+      <c r="C71">
         <v>12</v>
-      </c>
-      <c r="C71" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>185</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
+        <v>784</v>
+      </c>
+      <c r="C72">
         <v>19</v>
-      </c>
-      <c r="C72" s="2">
-        <v>784</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>187</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
+        <v>87</v>
+      </c>
+      <c r="C73">
         <v>18</v>
-      </c>
-      <c r="C73" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>186</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
+        <v>8</v>
+      </c>
+      <c r="C74">
         <v>16</v>
-      </c>
-      <c r="C74" s="2">
-        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>175</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
+        <v>4</v>
+      </c>
+      <c r="C75">
         <v>20</v>
-      </c>
-      <c r="C75" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>177</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
+        <v>94</v>
+      </c>
+      <c r="C76">
         <v>13</v>
-      </c>
-      <c r="C76" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>184</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
+        <v>8</v>
+      </c>
+      <c r="C77">
         <v>16</v>
-      </c>
-      <c r="C77" s="2">
-        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>179</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
+        <v>49</v>
+      </c>
+      <c r="C78">
         <v>10</v>
-      </c>
-      <c r="C78" s="2">
-        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>199</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
+        <v>789</v>
+      </c>
+      <c r="C79">
         <v>12</v>
-      </c>
-      <c r="C79" s="2">
-        <v>789</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
+        <v>42</v>
+      </c>
+      <c r="C80">
         <v>17</v>
-      </c>
-      <c r="C80" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>176</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
+        <v>7</v>
+      </c>
+      <c r="C81">
         <v>19</v>
-      </c>
-      <c r="C81" s="2">
-        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>200</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
+        <v>757</v>
+      </c>
+      <c r="C82">
         <v>15</v>
-      </c>
-      <c r="C82" s="2">
-        <v>757</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>182</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
+        <v>8</v>
+      </c>
+      <c r="C83">
         <v>10</v>
-      </c>
-      <c r="C83" s="2">
-        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>178</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
+        <v>75</v>
+      </c>
+      <c r="C84">
         <v>12</v>
-      </c>
-      <c r="C84" s="2">
-        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>201</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
+        <v>64</v>
+      </c>
+      <c r="C85">
         <v>19</v>
-      </c>
-      <c r="C85" s="2">
-        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>180</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
+        <v>965</v>
+      </c>
+      <c r="C86">
         <v>18</v>
-      </c>
-      <c r="C86" s="2">
-        <v>965</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>202</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
+        <v>486</v>
+      </c>
+      <c r="C87">
         <v>16</v>
-      </c>
-      <c r="C87" s="2">
-        <v>486</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>183</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
+        <v>46</v>
+      </c>
+      <c r="C88">
         <v>20</v>
-      </c>
-      <c r="C88" s="2">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -6868,7 +6868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/Jeu de Données.xlsx
+++ b/Jeu de Données.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malor\Documents\GiselleMagicArts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MPN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table Potions" sheetId="9" r:id="rId1"/>
     <sheet name="Table Onguents" sheetId="11" r:id="rId2"/>
     <sheet name="Table Recipients" sheetId="12" r:id="rId3"/>
     <sheet name="Table Ingredients" sheetId="13" r:id="rId4"/>
-    <sheet name="Table Clients" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="204">
   <si>
     <t>Huile de bénédiction d'arme</t>
   </si>
@@ -635,448 +634,13 @@
   </si>
   <si>
     <t>FRAICHEUR (jours)</t>
-  </si>
-  <si>
-    <t>NOM CLIENT</t>
-  </si>
-  <si>
-    <t>PRENOM CLIENT</t>
-  </si>
-  <si>
-    <t>ADRESSE</t>
-  </si>
-  <si>
-    <t>Mandel</t>
-  </si>
-  <si>
-    <t>Ferland</t>
-  </si>
-  <si>
-    <t>1 rue Victor Hugo</t>
-  </si>
-  <si>
-    <t>Sébastien</t>
-  </si>
-  <si>
-    <t>Beaudry</t>
-  </si>
-  <si>
-    <t>84 rue Petite Fusterie</t>
-  </si>
-  <si>
-    <t>Christophe</t>
-  </si>
-  <si>
-    <t>Bernier</t>
-  </si>
-  <si>
-    <t>94 rue des Chaligny</t>
-  </si>
-  <si>
-    <t>Pauline</t>
-  </si>
-  <si>
-    <t>Jalbert</t>
-  </si>
-  <si>
-    <t>37 rue de la Hulotais</t>
-  </si>
-  <si>
-    <t>Guy</t>
-  </si>
-  <si>
-    <t>Morin</t>
-  </si>
-  <si>
-    <t>58 Rue Joseph Vernet</t>
-  </si>
-  <si>
-    <t>Harcourt</t>
-  </si>
-  <si>
-    <t>Parrot</t>
-  </si>
-  <si>
-    <t>28 rue Ernest Renan</t>
-  </si>
-  <si>
-    <t>Royce</t>
-  </si>
-  <si>
-    <t>Gougeon</t>
-  </si>
-  <si>
-    <t>22 avenue de Provence</t>
-  </si>
-  <si>
-    <t>Sargent</t>
-  </si>
-  <si>
-    <t>Fortin</t>
-  </si>
-  <si>
-    <t>80 avenue Ferdinand de Lesseps</t>
-  </si>
-  <si>
-    <t>Loring</t>
-  </si>
-  <si>
-    <t>Bellemare</t>
-  </si>
-  <si>
-    <t>25 rue de Raymond Poincaré</t>
-  </si>
-  <si>
-    <t>Baptiste</t>
-  </si>
-  <si>
-    <t>Guérette</t>
-  </si>
-  <si>
-    <t>48 quai Saint-Nicolas</t>
-  </si>
-  <si>
-    <t>Anastasie</t>
-  </si>
-  <si>
-    <t>Huppé</t>
-  </si>
-  <si>
-    <t>3 rue Descartes</t>
-  </si>
-  <si>
-    <t>Thérèse</t>
-  </si>
-  <si>
-    <t>Jetté</t>
-  </si>
-  <si>
-    <t>63 avenue de l'Amandier</t>
-  </si>
-  <si>
-    <t>Clarice</t>
-  </si>
-  <si>
-    <t>Garnier</t>
-  </si>
-  <si>
-    <t>41 rue du Gue Jacquet</t>
-  </si>
-  <si>
-    <t>Didier</t>
-  </si>
-  <si>
-    <t>Franchet</t>
-  </si>
-  <si>
-    <t>73 boulevard d'Alsace</t>
-  </si>
-  <si>
-    <t>Christiane</t>
-  </si>
-  <si>
-    <t>Courcelle</t>
-  </si>
-  <si>
-    <t>63 rue de la Mare aux Carats</t>
-  </si>
-  <si>
-    <t>Suzette</t>
-  </si>
-  <si>
-    <t>Bergeron</t>
-  </si>
-  <si>
-    <t>98 Chemin des Bateliers</t>
-  </si>
-  <si>
-    <t>Germain</t>
-  </si>
-  <si>
-    <t>Goguen</t>
-  </si>
-  <si>
-    <t>45 rue du Gue Jacquet</t>
-  </si>
-  <si>
-    <t>Arnou</t>
-  </si>
-  <si>
-    <t>Brasseur</t>
-  </si>
-  <si>
-    <t>Delmar</t>
-  </si>
-  <si>
-    <t>Deniger</t>
-  </si>
-  <si>
-    <t>9 Rue Marie De Médicis</t>
-  </si>
-  <si>
-    <t>Hugues</t>
-  </si>
-  <si>
-    <t>Patenaude</t>
-  </si>
-  <si>
-    <t>16 rue du Paillle en queue</t>
-  </si>
-  <si>
-    <t>Loyal</t>
-  </si>
-  <si>
-    <t>Perrault</t>
-  </si>
-  <si>
-    <t>40 boulevard d'Alsace</t>
-  </si>
-  <si>
-    <t>Ignace</t>
-  </si>
-  <si>
-    <t>Chouinard</t>
-  </si>
-  <si>
-    <t>16 rue Michel Ange</t>
-  </si>
-  <si>
-    <t>Aubin</t>
-  </si>
-  <si>
-    <t>Langlais</t>
-  </si>
-  <si>
-    <t>18 rue Léon Dierx</t>
-  </si>
-  <si>
-    <t>Bevis</t>
-  </si>
-  <si>
-    <t>Auberjonois</t>
-  </si>
-  <si>
-    <t>84 rue du Château</t>
-  </si>
-  <si>
-    <t>Chantal</t>
-  </si>
-  <si>
-    <t>Bonami</t>
-  </si>
-  <si>
-    <t>56 Rue Joseph Vernet</t>
-  </si>
-  <si>
-    <t>Favor</t>
-  </si>
-  <si>
-    <t>48 Avenue Millies Lacroix</t>
-  </si>
-  <si>
-    <t>Magnolia</t>
-  </si>
-  <si>
-    <t>Lépicier</t>
-  </si>
-  <si>
-    <t>86 rue Saint Germain</t>
-  </si>
-  <si>
-    <t>Neville</t>
-  </si>
-  <si>
-    <t>Covillon</t>
-  </si>
-  <si>
-    <t>33 avenue Ferdinand de Lesseps</t>
-  </si>
-  <si>
-    <t>Ormazd</t>
-  </si>
-  <si>
-    <t>Hachée</t>
-  </si>
-  <si>
-    <t>12 Rue Hubert de Lisle</t>
-  </si>
-  <si>
-    <t>Varden</t>
-  </si>
-  <si>
-    <t>Echeverri</t>
-  </si>
-  <si>
-    <t>23 rue Marie de Médicis</t>
-  </si>
-  <si>
-    <t>Henri</t>
-  </si>
-  <si>
-    <t>Fournier</t>
-  </si>
-  <si>
-    <t>53 rue Petite Fusterie</t>
-  </si>
-  <si>
-    <t>Arnaude</t>
-  </si>
-  <si>
-    <t>Laurent</t>
-  </si>
-  <si>
-    <t>9 rue Adolphe Wurtz</t>
-  </si>
-  <si>
-    <t>Rousseau</t>
-  </si>
-  <si>
-    <t>29 boulevard d'Alsace</t>
-  </si>
-  <si>
-    <t>Sennet</t>
-  </si>
-  <si>
-    <t>Latourelle</t>
-  </si>
-  <si>
-    <t>74 rue Grande Fusterie</t>
-  </si>
-  <si>
-    <t>Henrichon</t>
-  </si>
-  <si>
-    <t>75 avenue Voltaire</t>
-  </si>
-  <si>
-    <t>Eugène</t>
-  </si>
-  <si>
-    <t>Tanguay</t>
-  </si>
-  <si>
-    <t>22 place de Miremont</t>
-  </si>
-  <si>
-    <t>Noémi</t>
-  </si>
-  <si>
-    <t>Quirion</t>
-  </si>
-  <si>
-    <t>17 rue des Chaligny</t>
-  </si>
-  <si>
-    <t>Laverne</t>
-  </si>
-  <si>
-    <t>Coupart</t>
-  </si>
-  <si>
-    <t>9 rue Sébastopol</t>
-  </si>
-  <si>
-    <t>Philippe</t>
-  </si>
-  <si>
-    <t>22 rue Banaudon</t>
-  </si>
-  <si>
-    <t>Francis</t>
-  </si>
-  <si>
-    <t>Roussel</t>
-  </si>
-  <si>
-    <t>21 Chemin Des Bateliers</t>
-  </si>
-  <si>
-    <t>Donatien</t>
-  </si>
-  <si>
-    <t>84 rue Saint Germain</t>
-  </si>
-  <si>
-    <t>Morneau</t>
-  </si>
-  <si>
-    <t>34 rue Sébastopol</t>
-  </si>
-  <si>
-    <t>Grosvenor</t>
-  </si>
-  <si>
-    <t>Doiron</t>
-  </si>
-  <si>
-    <t>19 rue Adolphe Wurtz</t>
-  </si>
-  <si>
-    <t>Sacripant</t>
-  </si>
-  <si>
-    <t>Berie</t>
-  </si>
-  <si>
-    <t>8 rue Pierre Motte</t>
-  </si>
-  <si>
-    <t>Esperanza</t>
-  </si>
-  <si>
-    <t>Boucher</t>
-  </si>
-  <si>
-    <t>50 place Stanislas</t>
-  </si>
-  <si>
-    <t>Laurence</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>13 rue Pierre De Coubertin</t>
-  </si>
-  <si>
-    <t>Roux</t>
-  </si>
-  <si>
-    <t>23 avenue de Bouvines</t>
-  </si>
-  <si>
-    <t>Monique</t>
-  </si>
-  <si>
-    <t>90 rue Goya</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Hébert</t>
-  </si>
-  <si>
-    <t>7 rue Michel Ange</t>
-  </si>
-  <si>
-    <t>Fleurette</t>
-  </si>
-  <si>
-    <t>Collin</t>
-  </si>
-  <si>
-    <t>85 rue Sadi Carnot</t>
-  </si>
-  <si>
-    <t>Alexandre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1084,316 +648,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1401,209 +665,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1694,23 +768,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1746,23 +803,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1945,19 +985,19 @@
       <selection activeCell="G2" sqref="G2:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -2011,7 +1051,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2063,7 +1103,7 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +1155,7 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2167,7 +1207,7 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +1259,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +1311,7 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2323,7 +1363,7 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2372,7 +1412,7 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2424,7 +1464,7 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2476,7 +1516,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2528,7 +1568,7 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2580,7 +1620,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2632,7 +1672,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2684,7 +1724,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -2736,7 +1776,7 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2788,7 +1828,7 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -2840,7 +1880,7 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2889,7 +1929,7 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2941,7 +1981,7 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2993,7 +2033,7 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3045,7 +2085,7 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -3097,7 +2137,7 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3149,7 +2189,7 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3201,7 +2241,7 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3250,7 +2290,7 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3302,7 +2342,7 @@
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3354,7 +2394,7 @@
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -3406,7 +2446,7 @@
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3458,7 +2498,7 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -3510,7 +2550,7 @@
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -3562,7 +2602,7 @@
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3614,7 +2654,7 @@
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -3666,7 +2706,7 @@
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -3718,7 +2758,7 @@
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -3770,7 +2810,7 @@
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -3822,7 +2862,7 @@
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -3874,7 +2914,7 @@
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -3926,7 +2966,7 @@
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -3978,7 +3018,7 @@
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -4030,7 +3070,7 @@
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -4082,7 +3122,7 @@
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -4134,7 +3174,7 @@
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -4186,7 +3226,7 @@
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -4238,7 +3278,7 @@
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4274,7 +3314,7 @@
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4310,7 +3350,7 @@
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4346,7 +3386,7 @@
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4382,7 +3422,7 @@
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4418,7 +3458,7 @@
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4454,7 +3494,7 @@
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4490,7 +3530,7 @@
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4526,7 +3566,7 @@
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4562,7 +3602,7 @@
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4598,7 +3638,7 @@
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4634,7 +3674,7 @@
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4670,7 +3710,7 @@
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4706,7 +3746,7 @@
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4742,7 +3782,7 @@
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4787,21 +3827,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.88671875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -4827,7 +3867,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>170</v>
       </c>
@@ -4850,7 +3890,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -4873,7 +3913,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>172</v>
       </c>
@@ -4896,7 +3936,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>173</v>
       </c>
@@ -4919,7 +3959,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>174</v>
       </c>
@@ -4942,7 +3982,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>132</v>
       </c>
@@ -4965,7 +4005,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>133</v>
       </c>
@@ -4985,7 +4025,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>134</v>
       </c>
@@ -5008,7 +4048,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>135</v>
       </c>
@@ -5031,7 +4071,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>136</v>
       </c>
@@ -5054,7 +4094,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
@@ -5077,7 +4117,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -5100,7 +4140,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>139</v>
       </c>
@@ -5123,7 +4163,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -5146,7 +4186,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
@@ -5169,7 +4209,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>142</v>
       </c>
@@ -5192,7 +4232,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
@@ -5212,7 +4252,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>144</v>
       </c>
@@ -5235,7 +4275,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>145</v>
       </c>
@@ -5258,7 +4298,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>146</v>
       </c>
@@ -5281,7 +4321,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>147</v>
       </c>
@@ -5304,7 +4344,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>148</v>
       </c>
@@ -5327,7 +4367,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>149</v>
       </c>
@@ -5350,7 +4390,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>150</v>
       </c>
@@ -5370,7 +4410,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>151</v>
       </c>
@@ -5393,7 +4433,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>152</v>
       </c>
@@ -5416,7 +4456,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>153</v>
       </c>
@@ -5439,7 +4479,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>154</v>
       </c>
@@ -5462,7 +4502,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>155</v>
       </c>
@@ -5485,7 +4525,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>156</v>
       </c>
@@ -5508,7 +4548,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>157</v>
       </c>
@@ -5531,7 +4571,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>158</v>
       </c>
@@ -5554,7 +4594,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>159</v>
       </c>
@@ -5577,7 +4617,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>160</v>
       </c>
@@ -5600,7 +4640,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -5623,7 +4663,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>162</v>
       </c>
@@ -5646,7 +4686,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>163</v>
       </c>
@@ -5669,7 +4709,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>164</v>
       </c>
@@ -5692,7 +4732,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>165</v>
       </c>
@@ -5715,7 +4755,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>166</v>
       </c>
@@ -5738,7 +4778,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>167</v>
       </c>
@@ -5761,7 +4801,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>168</v>
       </c>
@@ -5784,7 +4824,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>169</v>
       </c>
@@ -5820,9 +4860,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>192</v>
       </c>
@@ -5830,7 +4870,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>193</v>
       </c>
@@ -5838,7 +4878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>194</v>
       </c>
@@ -5846,7 +4886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>195</v>
       </c>
@@ -5854,7 +4894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>197</v>
       </c>
@@ -5862,7 +4902,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -5880,1567 +4920,986 @@
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
         <v>56</v>
       </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
         <v>464</v>
       </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
         <v>63</v>
       </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
         <v>74</v>
       </c>
-      <c r="C5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
         <v>66</v>
       </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
         <v>64</v>
       </c>
-      <c r="C8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
         <v>984</v>
       </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
         <v>44</v>
       </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
         <v>498</v>
       </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
         <v>49</v>
       </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
         <v>16</v>
       </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2">
         <v>56</v>
       </c>
-      <c r="C14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
         <v>748</v>
       </c>
-      <c r="C15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
         <v>34</v>
       </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
         <v>64</v>
       </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
         <v>64</v>
       </c>
-      <c r="C18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
         <v>6</v>
       </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2">
         <v>465</v>
       </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
         <v>564</v>
       </c>
-      <c r="C21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
         <v>984</v>
       </c>
-      <c r="C22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2">
         <v>651</v>
       </c>
-      <c r="C23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2">
         <v>68</v>
       </c>
-      <c r="C24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
         <v>56</v>
       </c>
-      <c r="C25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2">
         <v>186</v>
       </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2">
         <v>465</v>
       </c>
-      <c r="C27">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2">
         <v>65</v>
       </c>
-      <c r="C28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2">
         <v>1</v>
       </c>
-      <c r="C29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2">
         <v>34</v>
       </c>
-      <c r="C30">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2">
         <v>981</v>
       </c>
-      <c r="C31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="C32" s="2">
         <v>564</v>
       </c>
-      <c r="C32">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="C33" s="2">
         <v>156</v>
       </c>
-      <c r="C33">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2">
         <v>4</v>
       </c>
-      <c r="C34">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35" s="2">
         <v>684</v>
       </c>
-      <c r="C35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="C36" s="2">
         <v>68</v>
       </c>
-      <c r="C36">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2">
         <v>468</v>
       </c>
-      <c r="C37">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38" s="2">
         <v>4</v>
       </c>
-      <c r="C38">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2">
         <v>98</v>
       </c>
-      <c r="C39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2">
         <v>465</v>
       </c>
-      <c r="C40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41" s="2">
         <v>4</v>
       </c>
-      <c r="C41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42" s="2">
         <v>84</v>
       </c>
-      <c r="C42">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
+        <v>18</v>
+      </c>
+      <c r="C43" s="2">
         <v>84</v>
       </c>
-      <c r="C43">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2">
         <v>864</v>
       </c>
-      <c r="C44">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45" s="2">
         <v>8</v>
       </c>
-      <c r="C45">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2">
         <v>46</v>
       </c>
-      <c r="C46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2">
         <v>486</v>
       </c>
-      <c r="C47">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2">
         <v>4</v>
       </c>
-      <c r="C48">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
+        <v>20</v>
+      </c>
+      <c r="C49" s="2">
         <v>684</v>
       </c>
-      <c r="C49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
+        <v>18</v>
+      </c>
+      <c r="C50" s="2">
         <v>64</v>
       </c>
-      <c r="C50">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2">
         <v>848</v>
       </c>
-      <c r="C51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52" s="2">
         <v>7</v>
       </c>
-      <c r="C52">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
+        <v>19</v>
+      </c>
+      <c r="C53" s="2">
         <v>98</v>
       </c>
-      <c r="C53">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="C54" s="2">
         <v>94</v>
       </c>
-      <c r="C54">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
+        <v>20</v>
+      </c>
+      <c r="C55" s="2">
         <v>84</v>
       </c>
-      <c r="C55">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
+        <v>16</v>
+      </c>
+      <c r="C56" s="2">
         <v>8</v>
       </c>
-      <c r="C56">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57" s="2">
         <v>9</v>
       </c>
-      <c r="C57">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58">
+        <v>14</v>
+      </c>
+      <c r="C58" s="2">
         <v>78</v>
       </c>
-      <c r="C58">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
+        <v>19</v>
+      </c>
+      <c r="C59" s="2">
         <v>456</v>
       </c>
-      <c r="C59">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60">
+        <v>18</v>
+      </c>
+      <c r="C60" s="2">
         <v>49</v>
       </c>
-      <c r="C60">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
+        <v>16</v>
+      </c>
+      <c r="C61" s="2">
         <v>84</v>
       </c>
-      <c r="C61">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2">
         <v>654</v>
       </c>
-      <c r="C62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
+        <v>13</v>
+      </c>
+      <c r="C63" s="2">
         <v>98</v>
       </c>
-      <c r="C63">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64">
+        <v>16</v>
+      </c>
+      <c r="C64" s="2">
         <v>45</v>
       </c>
-      <c r="C64">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>99</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65" s="2">
         <v>49</v>
       </c>
-      <c r="C65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>100</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2">
         <v>4</v>
       </c>
-      <c r="C66">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
+        <v>17</v>
+      </c>
+      <c r="C67" s="2">
         <v>849</v>
       </c>
-      <c r="C67">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68">
+        <v>19</v>
+      </c>
+      <c r="C68" s="2">
         <v>4</v>
       </c>
-      <c r="C68">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
+        <v>15</v>
+      </c>
+      <c r="C69" s="2">
         <v>67</v>
       </c>
-      <c r="C69">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70" s="2">
         <v>428</v>
       </c>
-      <c r="C70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>120</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2">
         <v>98</v>
       </c>
-      <c r="C71">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>185</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72">
+        <v>19</v>
+      </c>
+      <c r="C72" s="2">
         <v>784</v>
       </c>
-      <c r="C72">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>187</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
+        <v>18</v>
+      </c>
+      <c r="C73" s="2">
         <v>87</v>
       </c>
-      <c r="C73">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>186</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
+        <v>16</v>
+      </c>
+      <c r="C74" s="2">
         <v>8</v>
       </c>
-      <c r="C74">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75">
+        <v>20</v>
+      </c>
+      <c r="C75" s="2">
         <v>4</v>
       </c>
-      <c r="C75">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>177</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76">
+        <v>13</v>
+      </c>
+      <c r="C76" s="2">
         <v>94</v>
       </c>
-      <c r="C76">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>184</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77">
+        <v>16</v>
+      </c>
+      <c r="C77" s="2">
         <v>8</v>
       </c>
-      <c r="C77">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>179</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78" s="2">
         <v>49</v>
       </c>
-      <c r="C78">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>199</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79" s="2">
         <v>789</v>
       </c>
-      <c r="C79">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>181</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80">
+        <v>17</v>
+      </c>
+      <c r="C80" s="2">
         <v>42</v>
       </c>
-      <c r="C80">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>176</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81">
+        <v>19</v>
+      </c>
+      <c r="C81" s="2">
         <v>7</v>
       </c>
-      <c r="C81">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>200</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82">
+        <v>15</v>
+      </c>
+      <c r="C82" s="2">
         <v>757</v>
       </c>
-      <c r="C82">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>182</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83" s="2">
         <v>8</v>
       </c>
-      <c r="C83">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>178</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84">
+        <v>12</v>
+      </c>
+      <c r="C84" s="2">
         <v>75</v>
       </c>
-      <c r="C84">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>201</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85">
+        <v>19</v>
+      </c>
+      <c r="C85" s="2">
         <v>64</v>
       </c>
-      <c r="C85">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>180</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86">
+        <v>18</v>
+      </c>
+      <c r="C86" s="2">
         <v>965</v>
       </c>
-      <c r="C86">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>202</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
+        <v>16</v>
+      </c>
+      <c r="C87" s="2">
         <v>486</v>
       </c>
-      <c r="C87">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>183</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
+        <v>20</v>
+      </c>
+      <c r="C88" s="2">
         <v>46</v>
-      </c>
-      <c r="C88">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Jeu de Données.xlsx
+++ b/Jeu de Données.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MPN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MPN\Desktop\Prj BDD\GiselleMagicArts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="3"/>
+    <workbookView xWindow="1896" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table Potions" sheetId="9" r:id="rId1"/>
     <sheet name="Table Onguents" sheetId="11" r:id="rId2"/>
-    <sheet name="Table Recipients" sheetId="12" r:id="rId3"/>
-    <sheet name="Table Ingredients" sheetId="13" r:id="rId4"/>
+    <sheet name="Table Ingredients" sheetId="13" r:id="rId3"/>
+    <sheet name="Table Recipients" sheetId="12" r:id="rId4"/>
+    <sheet name="Table Clients" sheetId="14" r:id="rId5"/>
+    <sheet name="Table Fournisseurs" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="357">
   <si>
     <t>Huile de bénédiction d'arme</t>
   </si>
@@ -634,13 +636,472 @@
   </si>
   <si>
     <t>FRAICHEUR (jours)</t>
+  </si>
+  <si>
+    <t>NOM CLIENT</t>
+  </si>
+  <si>
+    <t>PRENOM CLIENT</t>
+  </si>
+  <si>
+    <t>ADRESSE</t>
+  </si>
+  <si>
+    <t>Mandel</t>
+  </si>
+  <si>
+    <t>Ferland</t>
+  </si>
+  <si>
+    <t>1 rue Victor Hugo</t>
+  </si>
+  <si>
+    <t>Sébastien</t>
+  </si>
+  <si>
+    <t>Beaudry</t>
+  </si>
+  <si>
+    <t>84 rue Petite Fusterie</t>
+  </si>
+  <si>
+    <t>Christophe</t>
+  </si>
+  <si>
+    <t>Bernier</t>
+  </si>
+  <si>
+    <t>94 rue des Chaligny</t>
+  </si>
+  <si>
+    <t>Pauline</t>
+  </si>
+  <si>
+    <t>Jalbert</t>
+  </si>
+  <si>
+    <t>37 rue de la Hulotais</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>Morin</t>
+  </si>
+  <si>
+    <t>58 Rue Joseph Vernet</t>
+  </si>
+  <si>
+    <t>Harcourt</t>
+  </si>
+  <si>
+    <t>Parrot</t>
+  </si>
+  <si>
+    <t>28 rue Ernest Renan</t>
+  </si>
+  <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Gougeon</t>
+  </si>
+  <si>
+    <t>22 avenue de Provence</t>
+  </si>
+  <si>
+    <t>Sargent</t>
+  </si>
+  <si>
+    <t>Fortin</t>
+  </si>
+  <si>
+    <t>80 avenue Ferdinand de Lesseps</t>
+  </si>
+  <si>
+    <t>Loring</t>
+  </si>
+  <si>
+    <t>Bellemare</t>
+  </si>
+  <si>
+    <t>25 rue de Raymond Poincaré</t>
+  </si>
+  <si>
+    <t>Baptiste</t>
+  </si>
+  <si>
+    <t>Guérette</t>
+  </si>
+  <si>
+    <t>48 quai Saint-Nicolas</t>
+  </si>
+  <si>
+    <t>Anastasie</t>
+  </si>
+  <si>
+    <t>Huppé</t>
+  </si>
+  <si>
+    <t>3 rue Descartes</t>
+  </si>
+  <si>
+    <t>Thérèse</t>
+  </si>
+  <si>
+    <t>Jetté</t>
+  </si>
+  <si>
+    <t>63 avenue de l'Amandier</t>
+  </si>
+  <si>
+    <t>Clarice</t>
+  </si>
+  <si>
+    <t>Garnier</t>
+  </si>
+  <si>
+    <t>41 rue du Gue Jacquet</t>
+  </si>
+  <si>
+    <t>Didier</t>
+  </si>
+  <si>
+    <t>Franchet</t>
+  </si>
+  <si>
+    <t>73 boulevard d'Alsace</t>
+  </si>
+  <si>
+    <t>Christiane</t>
+  </si>
+  <si>
+    <t>Courcelle</t>
+  </si>
+  <si>
+    <t>63 rue de la Mare aux Carats</t>
+  </si>
+  <si>
+    <t>Suzette</t>
+  </si>
+  <si>
+    <t>Bergeron</t>
+  </si>
+  <si>
+    <t>98 Chemin des Bateliers</t>
+  </si>
+  <si>
+    <t>Germain</t>
+  </si>
+  <si>
+    <t>Goguen</t>
+  </si>
+  <si>
+    <t>45 rue du Gue Jacquet</t>
+  </si>
+  <si>
+    <t>Arnou</t>
+  </si>
+  <si>
+    <t>Brasseur</t>
+  </si>
+  <si>
+    <t>Delmar</t>
+  </si>
+  <si>
+    <t>Deniger</t>
+  </si>
+  <si>
+    <t>9 Rue Marie De Médicis</t>
+  </si>
+  <si>
+    <t>Hugues</t>
+  </si>
+  <si>
+    <t>Patenaude</t>
+  </si>
+  <si>
+    <t>16 rue du Paillle en queue</t>
+  </si>
+  <si>
+    <t>Loyal</t>
+  </si>
+  <si>
+    <t>Perrault</t>
+  </si>
+  <si>
+    <t>40 boulevard d'Alsace</t>
+  </si>
+  <si>
+    <t>Ignace</t>
+  </si>
+  <si>
+    <t>Chouinard</t>
+  </si>
+  <si>
+    <t>16 rue Michel Ange</t>
+  </si>
+  <si>
+    <t>Aubin</t>
+  </si>
+  <si>
+    <t>Langlais</t>
+  </si>
+  <si>
+    <t>18 rue Léon Dierx</t>
+  </si>
+  <si>
+    <t>Bevis</t>
+  </si>
+  <si>
+    <t>Auberjonois</t>
+  </si>
+  <si>
+    <t>84 rue du Château</t>
+  </si>
+  <si>
+    <t>Chantal</t>
+  </si>
+  <si>
+    <t>Bonami</t>
+  </si>
+  <si>
+    <t>56 Rue Joseph Vernet</t>
+  </si>
+  <si>
+    <t>Favor</t>
+  </si>
+  <si>
+    <t>48 Avenue Millies Lacroix</t>
+  </si>
+  <si>
+    <t>Magnolia</t>
+  </si>
+  <si>
+    <t>Lépicier</t>
+  </si>
+  <si>
+    <t>86 rue Saint Germain</t>
+  </si>
+  <si>
+    <t>Neville</t>
+  </si>
+  <si>
+    <t>Covillon</t>
+  </si>
+  <si>
+    <t>33 avenue Ferdinand de Lesseps</t>
+  </si>
+  <si>
+    <t>Ormazd</t>
+  </si>
+  <si>
+    <t>Hachée</t>
+  </si>
+  <si>
+    <t>12 Rue Hubert de Lisle</t>
+  </si>
+  <si>
+    <t>Varden</t>
+  </si>
+  <si>
+    <t>Echeverri</t>
+  </si>
+  <si>
+    <t>23 rue Marie de Médicis</t>
+  </si>
+  <si>
+    <t>Henri</t>
+  </si>
+  <si>
+    <t>Fournier</t>
+  </si>
+  <si>
+    <t>53 rue Petite Fusterie</t>
+  </si>
+  <si>
+    <t>Arnaude</t>
+  </si>
+  <si>
+    <t>Laurent</t>
+  </si>
+  <si>
+    <t>9 rue Adolphe Wurtz</t>
+  </si>
+  <si>
+    <t>Rousseau</t>
+  </si>
+  <si>
+    <t>29 boulevard d'Alsace</t>
+  </si>
+  <si>
+    <t>Sennet</t>
+  </si>
+  <si>
+    <t>Latourelle</t>
+  </si>
+  <si>
+    <t>74 rue Grande Fusterie</t>
+  </si>
+  <si>
+    <t>Henrichon</t>
+  </si>
+  <si>
+    <t>75 avenue Voltaire</t>
+  </si>
+  <si>
+    <t>Eugène</t>
+  </si>
+  <si>
+    <t>Tanguay</t>
+  </si>
+  <si>
+    <t>22 place de Miremont</t>
+  </si>
+  <si>
+    <t>Noémi</t>
+  </si>
+  <si>
+    <t>Quirion</t>
+  </si>
+  <si>
+    <t>17 rue des Chaligny</t>
+  </si>
+  <si>
+    <t>Laverne</t>
+  </si>
+  <si>
+    <t>Coupart</t>
+  </si>
+  <si>
+    <t>9 rue Sébastopol</t>
+  </si>
+  <si>
+    <t>Philippe</t>
+  </si>
+  <si>
+    <t>22 rue Banaudon</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Roussel</t>
+  </si>
+  <si>
+    <t>21 Chemin Des Bateliers</t>
+  </si>
+  <si>
+    <t>Donatien</t>
+  </si>
+  <si>
+    <t>84 rue Saint Germain</t>
+  </si>
+  <si>
+    <t>Morneau</t>
+  </si>
+  <si>
+    <t>34 rue Sébastopol</t>
+  </si>
+  <si>
+    <t>Grosvenor</t>
+  </si>
+  <si>
+    <t>Doiron</t>
+  </si>
+  <si>
+    <t>19 rue Adolphe Wurtz</t>
+  </si>
+  <si>
+    <t>Sacripant</t>
+  </si>
+  <si>
+    <t>Berie</t>
+  </si>
+  <si>
+    <t>8 rue Pierre Motte</t>
+  </si>
+  <si>
+    <t>Esperanza</t>
+  </si>
+  <si>
+    <t>Boucher</t>
+  </si>
+  <si>
+    <t>50 place Stanislas</t>
+  </si>
+  <si>
+    <t>Laurence</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>13 rue Pierre De Coubertin</t>
+  </si>
+  <si>
+    <t>Roux</t>
+  </si>
+  <si>
+    <t>23 avenue de Bouvines</t>
+  </si>
+  <si>
+    <t>Monique</t>
+  </si>
+  <si>
+    <t>90 rue Goya</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Hébert</t>
+  </si>
+  <si>
+    <t>7 rue Michel Ange</t>
+  </si>
+  <si>
+    <t>Fleurette</t>
+  </si>
+  <si>
+    <t>Collin</t>
+  </si>
+  <si>
+    <t>85 rue Sadi Carnot</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
+  </si>
+  <si>
+    <t>FOURNISSEUR</t>
+  </si>
+  <si>
+    <t>Magik Inc.</t>
+  </si>
+  <si>
+    <t>Witches Corp.</t>
+  </si>
+  <si>
+    <t>Wizarding Inc.</t>
+  </si>
+  <si>
+    <t>The Guild</t>
+  </si>
+  <si>
+    <t>Alchemistery &amp; Co.</t>
+  </si>
+  <si>
+    <t>Ogres &amp; Co.</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,16 +1109,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -665,19 +1426,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -988,10 +1939,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" customWidth="1"/>
@@ -3827,7 +4778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -3835,8 +4786,8 @@
   <cols>
     <col min="1" max="1" width="42.88671875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
@@ -4854,60 +5805,1068 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2">
+        <v>464</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2">
+        <v>984</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2">
+        <v>498</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2">
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2">
+        <v>748</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="2">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2">
+        <v>64</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2">
+        <v>465</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="2">
+        <v>564</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2">
+        <v>984</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="2">
+        <v>651</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="2">
+        <v>68</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="2">
+        <v>56</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="2">
+        <v>186</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="2">
+        <v>465</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="2">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="2">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2">
+        <v>981</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>564</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2">
+        <v>156</v>
+      </c>
+      <c r="C33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2">
+        <v>684</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2">
+        <v>68</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2">
+        <v>468</v>
+      </c>
+      <c r="C37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="2">
+        <v>98</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2">
+        <v>465</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="2">
+        <v>84</v>
+      </c>
+      <c r="C42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="2">
+        <v>84</v>
+      </c>
+      <c r="C43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2">
+        <v>864</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="2">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="2">
+        <v>486</v>
+      </c>
+      <c r="C47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="2">
+        <v>684</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="2">
+        <v>64</v>
+      </c>
+      <c r="C50">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="2">
+        <v>848</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="2">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="2">
+        <v>98</v>
+      </c>
+      <c r="C53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="2">
+        <v>94</v>
+      </c>
+      <c r="C54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="2">
+        <v>84</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="2">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="2">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2">
+        <v>78</v>
+      </c>
+      <c r="C58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="2">
+        <v>456</v>
+      </c>
+      <c r="C59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="2">
+        <v>49</v>
+      </c>
+      <c r="C60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="2">
+        <v>84</v>
+      </c>
+      <c r="C61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="2">
+        <v>654</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="2">
+        <v>98</v>
+      </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45</v>
+      </c>
+      <c r="C64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="2">
+        <v>49</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="2">
+        <v>849</v>
+      </c>
+      <c r="C67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="2">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="2">
+        <v>67</v>
+      </c>
+      <c r="C69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="2">
+        <v>428</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="2">
+        <v>98</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" s="2">
+        <v>784</v>
+      </c>
+      <c r="C72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="2">
+        <v>87</v>
+      </c>
+      <c r="C73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" s="2">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="2">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="2">
+        <v>94</v>
+      </c>
+      <c r="C76">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" s="2">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="2">
+        <v>49</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>199</v>
+      </c>
+      <c r="B79" s="2">
+        <v>789</v>
+      </c>
+      <c r="C79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="2">
+        <v>42</v>
+      </c>
+      <c r="C80">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="2">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="2">
+        <v>757</v>
+      </c>
+      <c r="C82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="2">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="2">
+        <v>75</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" s="2">
+        <v>64</v>
+      </c>
+      <c r="C85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" s="2">
+        <v>965</v>
+      </c>
+      <c r="C86">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" s="2">
+        <v>486</v>
+      </c>
+      <c r="C87">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" s="2">
+        <v>46</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>192</v>
       </c>
       <c r="B1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>193</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>194</v>
       </c>
       <c r="B3">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>195</v>
       </c>
       <c r="B4">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>197</v>
       </c>
       <c r="B5">
         <v>126</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>196</v>
       </c>
       <c r="B6">
         <v>70</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4915,991 +6874,636 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2">
-        <v>56</v>
+      <c r="A2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2">
-        <v>464</v>
+      <c r="A3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2">
-        <v>63</v>
+      <c r="A4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
-        <v>74</v>
+      <c r="A5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12</v>
+      <c r="A6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>66</v>
+      <c r="A7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2">
-        <v>64</v>
+      <c r="A8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2">
-        <v>984</v>
+      <c r="A9" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44</v>
+      <c r="A10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2">
-        <v>498</v>
+      <c r="A11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2">
-        <v>49</v>
+      <c r="A12" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2">
-        <v>16</v>
+      <c r="A13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2">
-        <v>56</v>
+      <c r="A14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2">
-        <v>748</v>
+      <c r="A15" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2">
-        <v>34</v>
+      <c r="A16" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2">
-        <v>64</v>
+      <c r="A17" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2">
-        <v>64</v>
+      <c r="A18" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2">
-        <v>6</v>
+      <c r="A19" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2">
-        <v>465</v>
+      <c r="A20" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2">
-        <v>564</v>
+      <c r="A21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2">
-        <v>984</v>
+      <c r="A22" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2">
-        <v>651</v>
+      <c r="A23" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24">
-        <v>14</v>
-      </c>
-      <c r="C24" s="2">
-        <v>68</v>
+      <c r="A24" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25">
-        <v>14</v>
-      </c>
-      <c r="C25" s="2">
-        <v>56</v>
+      <c r="A25" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26">
-        <v>20</v>
-      </c>
-      <c r="C26" s="2">
-        <v>186</v>
+      <c r="A26" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2">
-        <v>465</v>
+      <c r="A27" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28">
-        <v>11</v>
-      </c>
-      <c r="C28" s="2">
-        <v>65</v>
+      <c r="A28" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29">
-        <v>20</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
+      <c r="A29" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2">
-        <v>34</v>
+      <c r="A30" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2">
-        <v>981</v>
+      <c r="A31" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32">
-        <v>14</v>
-      </c>
-      <c r="C32" s="2">
-        <v>564</v>
+      <c r="A32" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33">
-        <v>18</v>
-      </c>
-      <c r="C33" s="2">
-        <v>156</v>
+      <c r="A33" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34">
-        <v>13</v>
-      </c>
-      <c r="C34" s="2">
-        <v>4</v>
+      <c r="A34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35">
-        <v>20</v>
-      </c>
-      <c r="C35" s="2">
-        <v>684</v>
+      <c r="A35" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>18</v>
-      </c>
-      <c r="C36" s="2">
-        <v>68</v>
+      <c r="A36" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37">
-        <v>16</v>
-      </c>
-      <c r="C37" s="2">
-        <v>468</v>
+      <c r="A37" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>17</v>
-      </c>
-      <c r="C38" s="2">
-        <v>4</v>
+      <c r="A38" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39">
-        <v>11</v>
-      </c>
-      <c r="C39" s="2">
-        <v>98</v>
+      <c r="A39" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2">
-        <v>465</v>
+      <c r="A40" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41">
-        <v>20</v>
-      </c>
-      <c r="C41" s="2">
-        <v>4</v>
+      <c r="A41" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42">
-        <v>18</v>
-      </c>
-      <c r="C42" s="2">
-        <v>84</v>
+      <c r="A42" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43">
-        <v>18</v>
-      </c>
-      <c r="C43" s="2">
-        <v>84</v>
+      <c r="A43" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44">
-        <v>14</v>
-      </c>
-      <c r="C44" s="2">
-        <v>864</v>
+      <c r="A44" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45">
-        <v>17</v>
-      </c>
-      <c r="C45" s="2">
-        <v>8</v>
+      <c r="A45" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46">
-        <v>20</v>
-      </c>
-      <c r="C46" s="2">
-        <v>46</v>
+      <c r="A46" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47">
-        <v>13</v>
-      </c>
-      <c r="C47" s="2">
-        <v>486</v>
+      <c r="A47" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2">
-        <v>4</v>
+      <c r="A48" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49">
-        <v>20</v>
-      </c>
-      <c r="C49" s="2">
-        <v>684</v>
+      <c r="A49" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50">
-        <v>18</v>
-      </c>
-      <c r="C50" s="2">
-        <v>64</v>
+      <c r="A50" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51">
-        <v>10</v>
-      </c>
-      <c r="C51" s="2">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52">
-        <v>11</v>
-      </c>
-      <c r="C52" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53">
-        <v>19</v>
-      </c>
-      <c r="C53" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54">
-        <v>18</v>
-      </c>
-      <c r="C54" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55">
-        <v>20</v>
-      </c>
-      <c r="C55" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56">
-        <v>16</v>
-      </c>
-      <c r="C56" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57">
-        <v>16</v>
-      </c>
-      <c r="C57" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58">
-        <v>14</v>
-      </c>
-      <c r="C58" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59">
-        <v>19</v>
-      </c>
-      <c r="C59" s="2">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60">
-        <v>18</v>
-      </c>
-      <c r="C60" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61">
-        <v>16</v>
-      </c>
-      <c r="C61" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62">
-        <v>20</v>
-      </c>
-      <c r="C62" s="2">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B63">
-        <v>13</v>
-      </c>
-      <c r="C63" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>98</v>
-      </c>
-      <c r="B64">
-        <v>16</v>
-      </c>
-      <c r="C64" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>99</v>
-      </c>
-      <c r="B65">
-        <v>10</v>
-      </c>
-      <c r="C65" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66">
-        <v>12</v>
-      </c>
-      <c r="C66" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>101</v>
-      </c>
-      <c r="B67">
-        <v>17</v>
-      </c>
-      <c r="C67" s="2">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>102</v>
-      </c>
-      <c r="B68">
-        <v>19</v>
-      </c>
-      <c r="C68" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69">
-        <v>15</v>
-      </c>
-      <c r="C69" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70">
-        <v>10</v>
-      </c>
-      <c r="C70" s="2">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71">
-        <v>12</v>
-      </c>
-      <c r="C71" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>185</v>
-      </c>
-      <c r="B72">
-        <v>19</v>
-      </c>
-      <c r="C72" s="2">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>187</v>
-      </c>
-      <c r="B73">
-        <v>18</v>
-      </c>
-      <c r="C73" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>186</v>
-      </c>
-      <c r="B74">
-        <v>16</v>
-      </c>
-      <c r="C74" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>175</v>
-      </c>
-      <c r="B75">
-        <v>20</v>
-      </c>
-      <c r="C75" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>177</v>
-      </c>
-      <c r="B76">
-        <v>13</v>
-      </c>
-      <c r="C76" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B77">
-        <v>16</v>
-      </c>
-      <c r="C77" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>179</v>
-      </c>
-      <c r="B78">
-        <v>10</v>
-      </c>
-      <c r="C78" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>199</v>
-      </c>
-      <c r="B79">
-        <v>12</v>
-      </c>
-      <c r="C79" s="2">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>181</v>
-      </c>
-      <c r="B80">
-        <v>17</v>
-      </c>
-      <c r="C80" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>176</v>
-      </c>
-      <c r="B81">
-        <v>19</v>
-      </c>
-      <c r="C81" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>200</v>
-      </c>
-      <c r="B82">
-        <v>15</v>
-      </c>
-      <c r="C82" s="2">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>182</v>
-      </c>
-      <c r="B83">
-        <v>10</v>
-      </c>
-      <c r="C83" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>178</v>
-      </c>
-      <c r="B84">
-        <v>12</v>
-      </c>
-      <c r="C84" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>201</v>
-      </c>
-      <c r="B85">
-        <v>19</v>
-      </c>
-      <c r="C85" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>180</v>
-      </c>
-      <c r="B86">
-        <v>18</v>
-      </c>
-      <c r="C86" s="2">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>202</v>
-      </c>
-      <c r="B87">
-        <v>16</v>
-      </c>
-      <c r="C87" s="2">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>183</v>
-      </c>
-      <c r="B88">
-        <v>20</v>
-      </c>
-      <c r="C88" s="2">
-        <v>46</v>
+      <c r="A51" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>